--- a/GPDB6_Install_SOP_v2.2_Eng.xlsx
+++ b/GPDB6_Install_SOP_v2.2_Eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhyun/zhyundata/32_GPDB_Docs/91_SOP/install_repository/github_gpdb6_install-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65EF00E-1C99-8447-8B5A-031D0C82E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41905226-94CF-814D-B253-028B05102A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3073,54 +3073,6 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>(1) Run and copy the script that creates the expand map file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-[~]$ sh /data/staging/crt_expand_map_gp6.sh
-[~]$ cp /data/staging/crt_expand_map.out /home/gpadmin/gpconfigs/gpexpand_map
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0432FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(2) Check the contents of the created map file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-[~]$ cat /home/gpadmin/gpconfigs/gpexpand_map</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0432FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
       <t>(1) Add java_path to mdw server's .bash_profile</t>
     </r>
     <r>
@@ -3708,6 +3660,54 @@
   </si>
   <si>
     <t>Except for the purpose of normalization/stabilization of emergency services after a failure</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(1) Run and copy the script that creates the expand map file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+[~]$ sh /data/staging/crt_expand_map_gp6.sh
+[~]$ cp /data/staging/result_expand_map.out /home/gpadmin/gpconfigs/gpexpand_map
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(2) Check the contents of the created map file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+[~]$ cat /home/gpadmin/gpconfigs/gpexpand_map</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4690,6 +4690,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4709,12 +4715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5176,7 +5176,7 @@
     <row r="2" spans="1:11" ht="30">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5204,7 +5204,7 @@
     <row r="4" spans="1:11" ht="13.5" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="122" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="123"/>
       <c r="D4" s="123"/>
@@ -5219,16 +5219,16 @@
     <row r="5" spans="1:11" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5246,10 +5246,10 @@
         <v>43895</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5267,10 +5267,10 @@
         <v>43895</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5288,10 +5288,10 @@
         <v>43896</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5309,10 +5309,10 @@
         <v>43896</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5440,7 +5440,7 @@
     <row r="19" spans="1:11" ht="17">
       <c r="A19" s="3"/>
       <c r="B19" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
@@ -5454,7 +5454,7 @@
     <row r="20" spans="1:11" ht="17">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5469,7 +5469,7 @@
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7370,8 +7370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="17"/>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="39"/>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="139" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="100" t="s">
@@ -7651,7 +7651,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="39"/>
-      <c r="B9" s="147"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="100" t="s">
         <v>170</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>250</v>
       </c>
       <c r="G55" s="79" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="H55" s="85" t="s">
         <v>201</v>
@@ -9909,7 +9909,7 @@
         <v>261</v>
       </c>
       <c r="G66" s="79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H66" s="79"/>
       <c r="I66" s="67"/>
@@ -9987,7 +9987,7 @@
         <v>263</v>
       </c>
       <c r="G68" s="79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H68" s="79"/>
       <c r="I68" s="67"/>
@@ -10025,7 +10025,7 @@
         <v>264</v>
       </c>
       <c r="G69" s="79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H69" s="85"/>
       <c r="I69" s="67"/>
@@ -10161,7 +10161,7 @@
       <c r="Y72" s="41"/>
       <c r="Z72" s="41"/>
     </row>
-    <row r="73" spans="1:26" ht="160">
+    <row r="73" spans="1:26" ht="176">
       <c r="A73" s="39"/>
       <c r="B73" s="71"/>
       <c r="C73" s="72" t="s">
@@ -10217,7 +10217,7 @@
         <v>269</v>
       </c>
       <c r="G74" s="79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H74" s="79" t="s">
         <v>146</v>
@@ -16377,7 +16377,7 @@
       <c r="B5" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="145" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="123"/>
@@ -16480,7 +16480,7 @@
       <c r="G8" s="131"/>
       <c r="H8" s="68"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="144" t="s">
+      <c r="J8" s="146" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="124"/>
@@ -16488,11 +16488,11 @@
         <f>SUM(L11:L13)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="145" t="s">
+      <c r="M8" s="147" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="124"/>
-      <c r="O8" s="139" t="s">
+      <c r="O8" s="141" t="s">
         <v>10</v>
       </c>
       <c r="P8" s="123"/>
@@ -16571,7 +16571,7 @@
     </row>
     <row r="10" spans="1:26" ht="17">
       <c r="A10" s="1"/>
-      <c r="B10" s="140"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="91" t="s">
         <v>23</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G10" s="93" t="s">
         <v>109</v>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="11" spans="1:26" ht="128">
       <c r="A11" s="1"/>
-      <c r="B11" s="141"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="91" t="s">
         <v>23</v>
       </c>
@@ -16620,13 +16620,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G11" s="93" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="92" t="s">
         <v>317</v>
-      </c>
-      <c r="H11" s="92" t="s">
-        <v>318</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="12" spans="1:26" ht="32">
       <c r="A12" s="1"/>
-      <c r="B12" s="141"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="91" t="s">
         <v>23</v>
       </c>
@@ -16663,13 +16663,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G12" s="92" t="s">
         <v>155</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="28"/>
@@ -16693,9 +16693,9 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="144">
+    <row r="13" spans="1:26" ht="128">
       <c r="A13" s="1"/>
-      <c r="B13" s="142"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="91" t="s">
         <v>23</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G13" s="92" t="s">
         <v>156</v>
@@ -44263,7 +44263,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" customHeight="1">
       <c r="B2" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="15" customHeight="1">
@@ -44271,12 +44271,12 @@
     </row>
     <row r="4" spans="2:2" ht="15" customHeight="1">
       <c r="B4" s="87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15" customHeight="1">
       <c r="B5" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15" customHeight="1">
@@ -44286,7 +44286,7 @@
     </row>
     <row r="9" spans="2:2" ht="15" customHeight="1">
       <c r="B9" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15" customHeight="1">
@@ -44456,7 +44456,7 @@
     </row>
     <row r="44" spans="2:2" ht="15" customHeight="1">
       <c r="B44" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15" customHeight="1">
@@ -44654,7 +44654,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1">
@@ -44712,7 +44712,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" customHeight="1">
